--- a/data/trans_camb/P52_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P52_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>41,9</t>
+          <t>12,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,51</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,12</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,64</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,09</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>3,09</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,66; 63,76</t>
+          <t>5,44; 19,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 37,54</t>
+          <t>0,29; 12,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,88; 34,97</t>
+          <t>-2,84; 9,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-35,4; 19,56</t>
+          <t>-5,4; 6,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,44; 44,31</t>
+          <t>3,06; 13,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 22,11</t>
+          <t>-1,58; 7,66</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>174,53%</t>
+          <t>357,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>52,12%</t>
+          <t>159,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>53,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-16,46%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>77,03%</t>
+          <t>155,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>60,27%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,51; 690,65</t>
+          <t>67,4; 1436,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,02; 450,44</t>
+          <t>-12,07; 965,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 122,49</t>
+          <t>-29,08; 240,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,58; 76,06</t>
+          <t>-53,01; 150,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,38; 198,39</t>
+          <t>27,66; 371,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,31; 94,82</t>
+          <t>-25,99; 215,39</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,65</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-8,96</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,78</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>3,28</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 35,72</t>
+          <t>-2,59; 9,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 30,58</t>
+          <t>-1,35; 18,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 24,53</t>
+          <t>-4,17; 6,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,08; 12,25</t>
+          <t>-6,1; 5,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 24,37</t>
+          <t>-1,85; 6,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 13,79</t>
+          <t>-1,55; 11,42</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>48,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>81,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-20,98%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,09%</t>
+          <t>40,99%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 125,02</t>
+          <t>-26,88; 230,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,0; 110,38</t>
+          <t>-22,59; 377,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-35,51; 83,88</t>
+          <t>-35,41; 122,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,56; 43,75</t>
+          <t>-50,56; 93,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 67,1</t>
+          <t>-19,24; 105,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,51; 40,59</t>
+          <t>-18,69; 169,74</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-20,75</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-13,52</t>
+          <t>-1,87</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 19,65</t>
+          <t>-7,64; 7,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-41,11; 3,77</t>
+          <t>-9,97; 4,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 19,98</t>
+          <t>-4,91; 4,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 11,71</t>
+          <t>-6,11; 3,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 14,31</t>
+          <t>-4,51; 4,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,46; 0,89</t>
+          <t>-6,02; 2,36</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,62%</t>
+          <t>-2,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-31,44%</t>
+          <t>-22,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,04%</t>
+          <t>-10,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>-1,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-20,82%</t>
+          <t>-16,88%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,2; 37,57</t>
+          <t>-51,23; 100,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,15; 8,03</t>
+          <t>-63,9; 65,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,42; 38,07</t>
+          <t>-36,68; 57,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 21,84</t>
+          <t>-43,88; 40,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,74; 25,63</t>
+          <t>-33,89; 51,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 1,34</t>
+          <t>-44,02; 29,25</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,03</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-16,5</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,1</t>
+          <t>-0,85</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 40,95</t>
+          <t>0,35; 10,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-39,04; 6,48</t>
+          <t>-5,46; 2,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 19,85</t>
+          <t>-3,61; 5,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-24,76; 13,79</t>
+          <t>-5,26; 3,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 21,61</t>
+          <t>-0,34; 6,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 4,16</t>
+          <t>-3,78; 2,05</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>82,67%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-28,98%</t>
+          <t>-14,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-1,09%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-8,19%</t>
+          <t>-7,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>39,32%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-18,05%</t>
+          <t>-10,91%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 107,27</t>
+          <t>-2,94; 251,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,37; 16,0</t>
+          <t>-60,19; 68,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,92; 37,13</t>
+          <t>-31,84; 87,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-32,98; 27,0</t>
+          <t>-46,49; 49,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 42,71</t>
+          <t>-3,83; 105,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-39,36; 7,76</t>
+          <t>-39,02; 33,94</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>16,92</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-8,29</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>11,2</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>1,63</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 42,54</t>
+          <t>-1,09; 8,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 25,81</t>
+          <t>-1,95; 6,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 30,35</t>
+          <t>-2,46; 7,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-33,19; 15,36</t>
+          <t>-3,43; 6,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 29,21</t>
+          <t>0,06; 7,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-25,76; 12,72</t>
+          <t>-1,61; 5,07</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>70,58%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-3,26%</t>
+          <t>38,96%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>41,05%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-11,88%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>53,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-8,33%</t>
+          <t>25,51%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 92,47</t>
+          <t>-21,02; 234,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,4; 55,69</t>
+          <t>-29,63; 190,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 56,41</t>
+          <t>-29,49; 151,35</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-40,79; 28,49</t>
+          <t>-37,09; 133,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 55,7</t>
+          <t>-0,29; 159,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 21,67</t>
+          <t>-20,81; 113,47</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-12,41</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-100,0</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-36,45</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-20,0</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-32,2</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-35,19</t>
+          <t>-1,77</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-56,86; 0,0</t>
+          <t>-2,52; 3,68</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,99; -0,9</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-82,07; 5,13</t>
+          <t>-7,54; 2,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-57,98; 22,74</t>
+          <t>-7,87; 1,98</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-72,94; 2,27</t>
+          <t>-4,54; 1,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-63,42; -4,08</t>
+          <t>-5,96; 0,11</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-12,41%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -1467,22 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-51,27%</t>
+          <t>-29,56%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-28,13%</t>
+          <t>-30,57%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-40,88%</t>
+          <t>-15,24%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-44,68%</t>
+          <t>-52,65%</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-56,86; 0,0</t>
+          <t>-69,98; 424,65</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-92,62; 7,47</t>
+          <t>-88,45; 139,4</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-69,4; 52,81</t>
+          <t>-86,55; 122,23</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-84,18; 1,55</t>
+          <t>-75,93; 96,67</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-72,76; -5,91</t>
+          <t>-87,4; 13,86</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>14,76</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-9,22</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-9,21</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-9,43</t>
+          <t>0,37</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,08; 26,47</t>
+          <t>1,34; 6,51</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 3,69</t>
+          <t>-1,44; 4,15</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 9,84</t>
+          <t>-1,12; 3,02</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 1,21</t>
+          <t>-2,44; 1,67</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 14,66</t>
+          <t>0,77; 4,06</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-17,25; -1,07</t>
+          <t>-1,41; 2,1</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>61,71%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-17,39%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-15,92%</t>
+          <t>-3,76%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-16,94%</t>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,39 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>4,84; 57,68</t>
+          <t>16,68; 119,35</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 8,36</t>
+          <t>-18,71; 80,25</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 18,29</t>
+          <t>-12,66; 44,37</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 2,31</t>
+          <t>-25,26; 25,09</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 28,94</t>
+          <t>8,43; 64,1</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-29,03; -2,0</t>
+          <t>-17,7; 32,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
